--- a/data/trans_orig/iP12_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP12_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A94171D9-F81F-424F-8906-64F41CCED1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFEBED0D-4626-44EE-9881-61235AA7E24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{33CE88BB-2262-48E6-BC5D-AF7CBCAA4523}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1392B4F7-5491-47BF-8833-A47C2EC5C29F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,15 +68,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
     <t>88,54%</t>
   </si>
   <si>
@@ -101,12 +218,6 @@
     <t>94,76%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
     <t>5,36%</t>
   </si>
   <si>
@@ -131,58 +242,55 @@
     <t>9,13%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -242,114 +350,6 @@
     <t>5,93%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
     <t>93,44%</t>
   </si>
   <si>
@@ -407,6 +407,108 @@
     <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
     <t>93,69%</t>
   </si>
   <si>
@@ -461,58 +563,58 @@
     <t>9,94%</t>
   </si>
   <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>89,87%</t>
@@ -569,108 +671,6 @@
     <t>11,43%</t>
   </si>
   <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
     <t>91,56%</t>
   </si>
   <si>
@@ -722,6 +722,108 @@
     <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2015 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
     <t>92,79%</t>
   </si>
   <si>
@@ -776,52 +878,58 @@
     <t>10,82%</t>
   </si>
   <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
   </si>
   <si>
     <t>95,51%</t>
@@ -878,114 +986,6 @@
     <t>8,0%</t>
   </si>
   <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
     <t>93,49%</t>
   </si>
   <si>
@@ -1031,6 +1031,96 @@
     <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
     <t>93,2%</t>
   </si>
   <si>
@@ -1079,58 +1169,58 @@
     <t>9,04%</t>
   </si>
   <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
   </si>
   <si>
     <t>90,71%</t>
@@ -1173,96 +1263,6 @@
   </si>
   <si>
     <t>5,57%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
   </si>
   <si>
     <t>92,17%</t>
@@ -1702,7 +1702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADD78DF-957B-4565-A05B-F83E819BE12E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78AAE9E-C7C6-4465-BDA3-11D93D1CD07C}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1820,10 +1820,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>297</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7">
-        <v>195310</v>
+        <v>23772</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1835,10 +1835,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>292</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>183069</v>
+        <v>17176</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1850,10 +1850,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>589</v>
+        <v>53</v>
       </c>
       <c r="N4" s="7">
-        <v>378378</v>
+        <v>40948</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1871,10 +1871,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>16832</v>
+        <v>1672</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1886,10 +1886,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>12094</v>
+        <v>5548</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1901,10 +1901,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>28927</v>
+        <v>7220</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1922,10 +1922,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1937,10 +1937,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1952,10 +1952,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1981,13 +1981,13 @@
         <v>117518</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>164</v>
@@ -1996,13 +1996,13 @@
         <v>109308</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>342</v>
@@ -2011,13 +2011,13 @@
         <v>226826</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,13 +2032,13 @@
         <v>10115</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -2047,13 +2047,13 @@
         <v>6694</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -2062,13 +2062,13 @@
         <v>16809</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,55 +2124,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D10" s="7">
-        <v>197329</v>
+        <v>195310</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="I10" s="7">
-        <v>202470</v>
+        <v>183069</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="N10" s="7">
-        <v>399799</v>
+        <v>378378</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,13 +2181,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>10495</v>
+        <v>16832</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>59</v>
@@ -2196,10 +2196,10 @@
         <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I11" s="7">
-        <v>6845</v>
+        <v>12094</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -2211,10 +2211,10 @@
         <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N11" s="7">
-        <v>17340</v>
+        <v>28927</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -2232,10 +2232,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2247,10 +2247,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2262,10 +2262,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2285,10 +2285,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
+        <v>219</v>
       </c>
       <c r="D13" s="7">
-        <v>23772</v>
+        <v>141379</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
@@ -2300,10 +2300,10 @@
         <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="I13" s="7">
-        <v>17176</v>
+        <v>125120</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
@@ -2315,19 +2315,19 @@
         <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>53</v>
+        <v>427</v>
       </c>
       <c r="N13" s="7">
-        <v>40948</v>
+        <v>266499</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,49 +2336,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7">
-        <v>1672</v>
+        <v>8278</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>21</v>
+      </c>
+      <c r="I14" s="7">
+        <v>12697</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5548</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>34</v>
+      </c>
+      <c r="N14" s="7">
+        <v>20975</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="7">
-        <v>9</v>
-      </c>
-      <c r="N14" s="7">
-        <v>7220</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,10 +2387,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2402,10 +2402,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2417,10 +2417,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2434,55 +2434,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="D16" s="7">
-        <v>141379</v>
+        <v>197329</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>265</v>
+      </c>
+      <c r="I16" s="7">
+        <v>202470</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="7">
-        <v>208</v>
-      </c>
-      <c r="I16" s="7">
-        <v>125120</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>555</v>
+      </c>
+      <c r="N16" s="7">
+        <v>399799</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="7">
-        <v>427</v>
-      </c>
-      <c r="N16" s="7">
-        <v>266499</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,49 +2491,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>8278</v>
+        <v>10495</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>9</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6845</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="7">
-        <v>21</v>
-      </c>
-      <c r="I17" s="7">
-        <v>12697</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>25</v>
+      </c>
+      <c r="N17" s="7">
+        <v>17340</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M17" s="7">
-        <v>34</v>
-      </c>
-      <c r="N17" s="7">
-        <v>20975</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,10 +2542,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2557,10 +2557,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2572,10 +2572,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2760,7 +2760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F8D3A-B03A-4E53-8820-4F5DE61E276B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858828F7-6C99-43EE-9705-4DF4152A138B}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,10 +2878,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>305</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>209709</v>
+        <v>24718</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>122</v>
@@ -2890,37 +2890,37 @@
         <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>22</v>
+      </c>
+      <c r="I4" s="7">
+        <v>19036</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="7">
-        <v>290</v>
-      </c>
-      <c r="I4" s="7">
-        <v>187175</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>49</v>
+      </c>
+      <c r="N4" s="7">
+        <v>43754</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="M4" s="7">
-        <v>595</v>
-      </c>
-      <c r="N4" s="7">
-        <v>396884</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,49 +2929,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>14126</v>
+        <v>737</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3337</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="7">
-        <v>29</v>
-      </c>
-      <c r="I5" s="7">
-        <v>19183</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4074</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M5" s="7">
-        <v>48</v>
-      </c>
-      <c r="N5" s="7">
-        <v>33309</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,10 +2980,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>324</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>223835</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2995,10 +2995,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>206358</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3010,10 +3010,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>643</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>430193</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3039,13 +3039,13 @@
         <v>119755</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H7" s="7">
         <v>144</v>
@@ -3054,13 +3054,13 @@
         <v>103179</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M7" s="7">
         <v>314</v>
@@ -3069,13 +3069,13 @@
         <v>222934</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3090,13 @@
         <v>9474</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -3105,13 +3105,13 @@
         <v>13805</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>32</v>
@@ -3120,13 +3120,13 @@
         <v>23279</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,55 +3182,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="D10" s="7">
-        <v>187290</v>
+        <v>209709</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>290</v>
+      </c>
+      <c r="I10" s="7">
+        <v>187175</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="7">
-        <v>254</v>
-      </c>
-      <c r="I10" s="7">
-        <v>194749</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>595</v>
+      </c>
+      <c r="N10" s="7">
+        <v>396884</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="M10" s="7">
-        <v>509</v>
-      </c>
-      <c r="N10" s="7">
-        <v>382040</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,49 +3239,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>21106</v>
+        <v>14126</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>29</v>
+      </c>
+      <c r="I11" s="7">
+        <v>19183</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H11" s="7">
-        <v>21</v>
-      </c>
-      <c r="I11" s="7">
-        <v>15551</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>48</v>
+      </c>
+      <c r="N11" s="7">
+        <v>33309</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="M11" s="7">
-        <v>49</v>
-      </c>
-      <c r="N11" s="7">
-        <v>36656</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,10 +3290,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>208396</v>
+        <v>223835</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3305,10 +3305,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>206358</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3320,10 +3320,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>558</v>
+        <v>643</v>
       </c>
       <c r="N12" s="7">
-        <v>418696</v>
+        <v>430193</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3343,49 +3343,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="D13" s="7">
-        <v>24718</v>
+        <v>148475</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>227</v>
+      </c>
+      <c r="I13" s="7">
+        <v>145960</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7">
-        <v>19036</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>456</v>
+      </c>
+      <c r="N13" s="7">
+        <v>294435</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="M13" s="7">
-        <v>49</v>
-      </c>
-      <c r="N13" s="7">
-        <v>43754</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,25 +3394,25 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>737</v>
+        <v>18117</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>185</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I14" s="7">
-        <v>3337</v>
+        <v>9416</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>186</v>
@@ -3424,10 +3424,10 @@
         <v>188</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="N14" s="7">
-        <v>4074</v>
+        <v>27533</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>189</v>
@@ -3445,10 +3445,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>166592</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3460,10 +3460,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>155376</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3475,10 +3475,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>498</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>321968</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3492,16 +3492,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="D16" s="7">
-        <v>148475</v>
+        <v>187290</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>192</v>
@@ -3513,10 +3513,10 @@
         <v>194</v>
       </c>
       <c r="H16" s="7">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="I16" s="7">
-        <v>145960</v>
+        <v>194749</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>195</v>
@@ -3528,10 +3528,10 @@
         <v>197</v>
       </c>
       <c r="M16" s="7">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="N16" s="7">
-        <v>294435</v>
+        <v>382040</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>198</v>
@@ -3549,10 +3549,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7">
-        <v>18117</v>
+        <v>21106</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>201</v>
@@ -3564,10 +3564,10 @@
         <v>203</v>
       </c>
       <c r="H17" s="7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I17" s="7">
-        <v>9416</v>
+        <v>15551</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>204</v>
@@ -3579,10 +3579,10 @@
         <v>206</v>
       </c>
       <c r="M17" s="7">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N17" s="7">
-        <v>27533</v>
+        <v>36656</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>207</v>
@@ -3600,10 +3600,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="D18" s="7">
-        <v>166592</v>
+        <v>208396</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3615,10 +3615,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>155376</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3630,10 +3630,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>498</v>
+        <v>558</v>
       </c>
       <c r="N18" s="7">
-        <v>321968</v>
+        <v>418696</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3689,7 +3689,7 @@
         <v>1340046</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>216</v>
@@ -3740,7 +3740,7 @@
         <v>124852</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>224</v>
@@ -3818,7 +3818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42D48E5-B165-428D-AA30-368BC0FED0C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD20BD4A-CAB1-4672-8BB3-262879D1E6E1}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3936,10 +3936,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>308</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>208178</v>
+        <v>22574</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>227</v>
@@ -3951,10 +3951,10 @@
         <v>229</v>
       </c>
       <c r="H4" s="7">
-        <v>300</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>186356</v>
+        <v>19725</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>230</v>
@@ -3966,10 +3966,10 @@
         <v>232</v>
       </c>
       <c r="M4" s="7">
-        <v>608</v>
+        <v>48</v>
       </c>
       <c r="N4" s="7">
-        <v>394534</v>
+        <v>42298</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>233</v>
@@ -3987,10 +3987,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>16181</v>
+        <v>3000</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>236</v>
@@ -4002,10 +4002,10 @@
         <v>238</v>
       </c>
       <c r="H5" s="7">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>20274</v>
+        <v>2802</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>239</v>
@@ -4017,10 +4017,10 @@
         <v>241</v>
       </c>
       <c r="M5" s="7">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>36455</v>
+        <v>5803</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>242</v>
@@ -4038,10 +4038,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4053,10 +4053,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>333</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>206630</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4068,10 +4068,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>665</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>430989</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4240,16 +4240,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="D10" s="7">
-        <v>196496</v>
+        <v>208178</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>261</v>
@@ -4261,10 +4261,10 @@
         <v>263</v>
       </c>
       <c r="H10" s="7">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="I10" s="7">
-        <v>193034</v>
+        <v>186356</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>264</v>
@@ -4276,10 +4276,10 @@
         <v>266</v>
       </c>
       <c r="M10" s="7">
-        <v>538</v>
+        <v>608</v>
       </c>
       <c r="N10" s="7">
-        <v>389529</v>
+        <v>394534</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>267</v>
@@ -4297,10 +4297,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>9240</v>
+        <v>16181</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>270</v>
@@ -4312,10 +4312,10 @@
         <v>272</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I11" s="7">
-        <v>14386</v>
+        <v>20274</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>273</v>
@@ -4327,10 +4327,10 @@
         <v>275</v>
       </c>
       <c r="M11" s="7">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="N11" s="7">
-        <v>23627</v>
+        <v>36455</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>276</v>
@@ -4348,10 +4348,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4363,10 +4363,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>206630</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4378,10 +4378,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>665</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>430989</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4401,10 +4401,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="D13" s="7">
-        <v>22574</v>
+        <v>150730</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>279</v>
@@ -4416,10 +4416,10 @@
         <v>281</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="I13" s="7">
-        <v>19725</v>
+        <v>143804</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>282</v>
@@ -4431,10 +4431,10 @@
         <v>284</v>
       </c>
       <c r="M13" s="7">
-        <v>48</v>
+        <v>463</v>
       </c>
       <c r="N13" s="7">
-        <v>42298</v>
+        <v>294534</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>285</v>
@@ -4452,10 +4452,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>3000</v>
+        <v>15943</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>288</v>
@@ -4467,10 +4467,10 @@
         <v>290</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I14" s="7">
-        <v>2802</v>
+        <v>12193</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>291</v>
@@ -4482,10 +4482,10 @@
         <v>293</v>
       </c>
       <c r="M14" s="7">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="N14" s="7">
-        <v>5803</v>
+        <v>28136</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>294</v>
@@ -4503,10 +4503,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4518,10 +4518,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4533,10 +4533,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4550,16 +4550,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="D16" s="7">
-        <v>150730</v>
+        <v>196496</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>297</v>
@@ -4571,10 +4571,10 @@
         <v>299</v>
       </c>
       <c r="H16" s="7">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="I16" s="7">
-        <v>143804</v>
+        <v>193034</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>300</v>
@@ -4586,10 +4586,10 @@
         <v>302</v>
       </c>
       <c r="M16" s="7">
-        <v>463</v>
+        <v>538</v>
       </c>
       <c r="N16" s="7">
-        <v>294534</v>
+        <v>389529</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>303</v>
@@ -4607,10 +4607,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>15943</v>
+        <v>9240</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>306</v>
@@ -4625,7 +4625,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="7">
-        <v>12193</v>
+        <v>14386</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>309</v>
@@ -4637,10 +4637,10 @@
         <v>311</v>
       </c>
       <c r="M17" s="7">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N17" s="7">
-        <v>28136</v>
+        <v>23627</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>312</v>
@@ -4658,10 +4658,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4673,10 +4673,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4688,10 +4688,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4723,7 +4723,7 @@
         <v>316</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="H19" s="7">
         <v>975</v>
@@ -4732,7 +4732,7 @@
         <v>648028</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>317</v>
@@ -4771,7 +4771,7 @@
         <v>322</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>323</v>
@@ -4783,7 +4783,7 @@
         <v>55726</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>324</v>
@@ -4876,7 +4876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607AEC32-6781-46A6-948F-B0C69A037E14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9668D12-4F32-4533-BB06-A3BFF72394DB}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4994,10 +4994,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>318</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>233167</v>
+        <v>12182</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>330</v>
@@ -5006,37 +5006,37 @@
         <v>331</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7">
+        <v>15109</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="H4" s="7">
-        <v>258</v>
-      </c>
-      <c r="I4" s="7">
-        <v>178755</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>44</v>
+      </c>
+      <c r="N4" s="7">
+        <v>27291</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M4" s="7">
-        <v>576</v>
-      </c>
-      <c r="N4" s="7">
-        <v>411923</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,49 +5045,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>17019</v>
+        <v>516</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1678</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2194</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="H5" s="7">
-        <v>22</v>
-      </c>
-      <c r="I5" s="7">
-        <v>13597</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="M5" s="7">
-        <v>47</v>
-      </c>
-      <c r="N5" s="7">
-        <v>30615</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,10 +5096,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5111,10 +5111,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5126,10 +5126,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5155,13 +5155,13 @@
         <v>106505</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>154</v>
@@ -5170,13 +5170,13 @@
         <v>96635</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>293</v>
@@ -5185,13 +5185,13 @@
         <v>203138</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5206,13 @@
         <v>8091</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -5221,13 +5221,13 @@
         <v>7260</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -5236,13 +5236,13 @@
         <v>15352</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,55 +5298,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="D10" s="7">
-        <v>158759</v>
+        <v>233167</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H10" s="7">
+        <v>258</v>
+      </c>
+      <c r="I10" s="7">
+        <v>178755</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>576</v>
+      </c>
+      <c r="N10" s="7">
+        <v>411923</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="H10" s="7">
-        <v>224</v>
-      </c>
-      <c r="I10" s="7">
-        <v>161510</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="M10" s="7">
-        <v>440</v>
-      </c>
-      <c r="N10" s="7">
-        <v>320268</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,49 +5355,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7">
+        <v>17019</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H11" s="7">
         <v>22</v>
       </c>
-      <c r="D11" s="7">
-        <v>16257</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>13597</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>47</v>
+      </c>
+      <c r="N11" s="7">
+        <v>30615</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="H11" s="7">
-        <v>16</v>
-      </c>
-      <c r="I11" s="7">
-        <v>10433</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="M11" s="7">
-        <v>38</v>
-      </c>
-      <c r="N11" s="7">
-        <v>26690</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,10 +5406,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D12" s="7">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5421,10 +5421,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I12" s="7">
-        <v>171943</v>
+        <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5436,10 +5436,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>478</v>
+        <v>623</v>
       </c>
       <c r="N12" s="7">
-        <v>346958</v>
+        <v>442538</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5459,49 +5459,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="D13" s="7">
-        <v>12182</v>
+        <v>158257</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>203</v>
+      </c>
+      <c r="I13" s="7">
+        <v>153277</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7">
-        <v>15109</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>380</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
-        <v>44</v>
+        <v>409</v>
       </c>
       <c r="N13" s="7">
-        <v>27291</v>
+        <v>311534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,49 +5510,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>516</v>
+        <v>14951</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I14" s="7">
-        <v>1678</v>
+        <v>14625</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N14" s="7">
-        <v>2194</v>
+        <v>29576</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,10 +5561,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D15" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5576,10 +5576,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>167902</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5591,10 +5591,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>451</v>
       </c>
       <c r="N15" s="7">
-        <v>29485</v>
+        <v>341110</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5608,55 +5608,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D16" s="7">
-        <v>158257</v>
+        <v>158759</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="I16" s="7">
-        <v>153277</v>
+        <v>161510</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>321</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="N16" s="7">
-        <v>311534</v>
+        <v>320268</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,49 +5665,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>14951</v>
+        <v>16257</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I17" s="7">
-        <v>14625</v>
+        <v>10433</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>327</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M17" s="7">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N17" s="7">
-        <v>29576</v>
+        <v>26690</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,10 +5716,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D18" s="7">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5731,10 +5731,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="I18" s="7">
-        <v>167902</v>
+        <v>171943</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5746,10 +5746,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="N18" s="7">
-        <v>341110</v>
+        <v>346958</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5805,7 +5805,7 @@
         <v>1274154</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>414</v>
@@ -5856,7 +5856,7 @@
         <v>104429</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>422</v>

--- a/data/trans_orig/iP12_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP12_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFEBED0D-4626-44EE-9881-61235AA7E24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20CFE56F-ADE1-486D-9382-4BAF45FA41E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1392B4F7-5491-47BF-8833-A47C2EC5C29F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{095326FD-1E21-4657-9364-7337B947CDC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="413">
   <si>
     <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,13 +71,43 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>93,43%</t>
   </si>
   <si>
-    <t>80,36%</t>
+    <t>80,09%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,49 +116,19 @@
     <t>75,59%</t>
   </si>
   <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
   </si>
   <si>
     <t>85,01%</t>
   </si>
   <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1180 +137,1147 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
     <t>92,07%</t>
   </si>
   <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>94,23%</t>
   </si>
   <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
   </si>
   <si>
     <t>93,1%</t>
   </si>
   <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>92,9%</t>
   </si>
   <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
     <t>90,87%</t>
   </si>
   <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2015 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
     <t>94,76%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
   </si>
   <si>
     <t>92,42%</t>
   </si>
   <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2015 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
+    <t>91,17%</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1288,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1417,39 +1384,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1501,7 +1468,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1612,13 +1579,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1627,6 +1587,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1691,19 +1658,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78AAE9E-C7C6-4465-BDA3-11D93D1CD07C}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5601E6-F3C9-4EF6-95DD-A6E804CD270C}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1820,10 +1807,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>23772</v>
+        <v>1672</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1835,10 +1822,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>17176</v>
+        <v>5548</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1850,10 +1837,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>40948</v>
+        <v>7220</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1871,10 +1858,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>1672</v>
+        <v>23772</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1886,10 +1873,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>5548</v>
+        <v>17176</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1901,10 +1888,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="N5" s="7">
-        <v>7220</v>
+        <v>40948</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1975,10 +1962,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>117518</v>
+        <v>10115</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1990,10 +1977,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>109308</v>
+        <v>6694</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2005,10 +1992,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>342</v>
+        <v>25</v>
       </c>
       <c r="N7" s="7">
-        <v>226826</v>
+        <v>16809</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2026,10 +2013,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="D8" s="7">
-        <v>10115</v>
+        <v>117518</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2041,10 +2028,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="I8" s="7">
-        <v>6694</v>
+        <v>109308</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2056,10 +2043,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>25</v>
+        <v>342</v>
       </c>
       <c r="N8" s="7">
-        <v>16809</v>
+        <v>226826</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2130,10 +2117,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>297</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>195310</v>
+        <v>16832</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>32</v>
@@ -2145,10 +2132,10 @@
         <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>183069</v>
+        <v>12094</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -2160,10 +2147,10 @@
         <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>589</v>
+        <v>45</v>
       </c>
       <c r="N10" s="7">
-        <v>378378</v>
+        <v>28927</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -2181,10 +2168,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="D11" s="7">
-        <v>16832</v>
+        <v>195310</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>41</v>
@@ -2196,10 +2183,10 @@
         <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="I11" s="7">
-        <v>12094</v>
+        <v>183069</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -2211,10 +2198,10 @@
         <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>45</v>
+        <v>589</v>
       </c>
       <c r="N11" s="7">
-        <v>28927</v>
+        <v>378378</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -2285,10 +2272,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>141379</v>
+        <v>8278</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
@@ -2300,10 +2287,10 @@
         <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>125120</v>
+        <v>12697</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
@@ -2315,19 +2302,19 @@
         <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>427</v>
+        <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>266499</v>
+        <v>20975</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,49 +2323,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="D14" s="7">
-        <v>8278</v>
+        <v>141379</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="I14" s="7">
-        <v>12697</v>
+        <v>125120</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>34</v>
+        <v>427</v>
       </c>
       <c r="N14" s="7">
-        <v>20975</v>
+        <v>266499</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,55 +2421,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>290</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>197329</v>
+        <v>10495</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
-        <v>265</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>202470</v>
+        <v>6845</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
-        <v>555</v>
+        <v>25</v>
       </c>
       <c r="N16" s="7">
-        <v>399799</v>
+        <v>17340</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,49 +2478,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="D17" s="7">
-        <v>10495</v>
+        <v>197329</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>265</v>
       </c>
       <c r="I17" s="7">
-        <v>6845</v>
+        <v>202470</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>25</v>
+        <v>555</v>
       </c>
       <c r="N17" s="7">
-        <v>17340</v>
+        <v>399799</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,49 +2582,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1015</v>
+        <v>71</v>
       </c>
       <c r="D19" s="7">
-        <v>675308</v>
+        <v>47392</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
-        <v>951</v>
+        <v>67</v>
       </c>
       <c r="I19" s="7">
-        <v>637143</v>
+        <v>43878</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
-        <v>1966</v>
+        <v>138</v>
       </c>
       <c r="N19" s="7">
-        <v>1312451</v>
+        <v>91270</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,49 +2633,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>71</v>
+        <v>1015</v>
       </c>
       <c r="D20" s="7">
-        <v>47392</v>
+        <v>675308</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
-        <v>67</v>
+        <v>951</v>
       </c>
       <c r="I20" s="7">
-        <v>43878</v>
+        <v>637143</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>138</v>
+        <v>1966</v>
       </c>
       <c r="N20" s="7">
-        <v>91270</v>
+        <v>1312451</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,6 +2727,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2760,8 +2752,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858828F7-6C99-43EE-9705-4DF4152A138B}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4E19BC-3B5A-485E-88DC-24A404441D94}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2777,7 +2769,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2878,49 +2870,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>24718</v>
+        <v>737</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>19036</v>
+        <v>3337</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>43754</v>
+        <v>4074</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,49 +2921,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>737</v>
+        <v>24718</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
       <c r="I5" s="7">
-        <v>3337</v>
+        <v>19036</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="N5" s="7">
-        <v>4074</v>
+        <v>43754</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,49 +3025,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>119755</v>
+        <v>9474</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
+        <v>19</v>
+      </c>
+      <c r="I7" s="7">
+        <v>13805</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="I7" s="7">
-        <v>103179</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
-        <v>314</v>
+        <v>32</v>
       </c>
       <c r="N7" s="7">
-        <v>222934</v>
+        <v>23279</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,49 +3076,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="D8" s="7">
-        <v>9474</v>
+        <v>119755</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="I8" s="7">
-        <v>13805</v>
+        <v>103179</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
-        <v>32</v>
+        <v>314</v>
       </c>
       <c r="N8" s="7">
-        <v>23279</v>
+        <v>222934</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,49 +3180,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>305</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>209709</v>
+        <v>14126</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>187175</v>
+        <v>19183</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
-        <v>595</v>
+        <v>48</v>
       </c>
       <c r="N10" s="7">
-        <v>396884</v>
+        <v>33309</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,49 +3231,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="D11" s="7">
-        <v>14126</v>
+        <v>209709</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H11" s="7">
-        <v>29</v>
+        <v>290</v>
       </c>
       <c r="I11" s="7">
-        <v>19183</v>
+        <v>187175</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="M11" s="7">
-        <v>48</v>
+        <v>595</v>
       </c>
       <c r="N11" s="7">
-        <v>33309</v>
+        <v>396884</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,49 +3335,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>229</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>148475</v>
+        <v>18117</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
-        <v>227</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>145960</v>
+        <v>9416</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
-        <v>456</v>
+        <v>42</v>
       </c>
       <c r="N13" s="7">
-        <v>294435</v>
+        <v>27533</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,49 +3386,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="D14" s="7">
-        <v>18117</v>
+        <v>148475</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="I14" s="7">
-        <v>9416</v>
+        <v>145960</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
-        <v>42</v>
+        <v>456</v>
       </c>
       <c r="N14" s="7">
-        <v>27533</v>
+        <v>294435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,34 +3484,34 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>255</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>187290</v>
+        <v>21106</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="I16" s="7">
-        <v>194749</v>
+        <v>15551</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>196</v>
@@ -3528,10 +3520,10 @@
         <v>197</v>
       </c>
       <c r="M16" s="7">
-        <v>509</v>
+        <v>49</v>
       </c>
       <c r="N16" s="7">
-        <v>382040</v>
+        <v>36656</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>198</v>
@@ -3549,10 +3541,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D17" s="7">
-        <v>21106</v>
+        <v>187290</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>201</v>
@@ -3564,34 +3556,34 @@
         <v>203</v>
       </c>
       <c r="H17" s="7">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="I17" s="7">
-        <v>15551</v>
+        <v>194749</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>509</v>
+      </c>
+      <c r="N17" s="7">
+        <v>382040</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="M17" s="7">
-        <v>49</v>
-      </c>
-      <c r="N17" s="7">
-        <v>36656</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,49 +3645,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>986</v>
+        <v>88</v>
       </c>
       <c r="D19" s="7">
-        <v>689947</v>
+        <v>63560</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>88</v>
+      </c>
+      <c r="I19" s="7">
+        <v>61292</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H19" s="7">
-        <v>937</v>
-      </c>
-      <c r="I19" s="7">
-        <v>650099</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>176</v>
+      </c>
+      <c r="N19" s="7">
+        <v>124852</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="M19" s="7">
-        <v>1923</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1340046</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,49 +3696,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>88</v>
+        <v>986</v>
       </c>
       <c r="D20" s="7">
-        <v>63560</v>
+        <v>689947</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>937</v>
+      </c>
+      <c r="I20" s="7">
+        <v>650099</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H20" s="7">
-        <v>88</v>
-      </c>
-      <c r="I20" s="7">
-        <v>61292</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1923</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1340046</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="M20" s="7">
-        <v>176</v>
-      </c>
-      <c r="N20" s="7">
-        <v>124852</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,6 +3790,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3818,8 +3815,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD20BD4A-CAB1-4672-8BB3-262879D1E6E1}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1120477C-3DC3-4B5A-A775-7CA50581CA31}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3835,7 +3832,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3936,49 +3933,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>22574</v>
+        <v>3000</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2802</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="H4" s="7">
-        <v>21</v>
-      </c>
-      <c r="I4" s="7">
-        <v>19725</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>5803</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="M4" s="7">
-        <v>48</v>
-      </c>
-      <c r="N4" s="7">
-        <v>42298</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,49 +3984,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>3000</v>
+        <v>22574</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>21</v>
+      </c>
+      <c r="I5" s="7">
+        <v>19725</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2802</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>48</v>
+      </c>
+      <c r="N5" s="7">
+        <v>42298</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="M5" s="7">
-        <v>6</v>
-      </c>
-      <c r="N5" s="7">
-        <v>5803</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,49 +4088,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>118384</v>
+        <v>4118</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>9</v>
+      </c>
+      <c r="I7" s="7">
+        <v>6070</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H7" s="7">
-        <v>154</v>
-      </c>
-      <c r="I7" s="7">
-        <v>105110</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>15</v>
+      </c>
+      <c r="N7" s="7">
+        <v>10188</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="M7" s="7">
-        <v>313</v>
-      </c>
-      <c r="N7" s="7">
-        <v>223494</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,49 +4139,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="D8" s="7">
-        <v>4118</v>
+        <v>118384</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>154</v>
+      </c>
+      <c r="I8" s="7">
+        <v>105110</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H8" s="7">
-        <v>9</v>
-      </c>
-      <c r="I8" s="7">
-        <v>6070</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>313</v>
+      </c>
+      <c r="N8" s="7">
+        <v>223494</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="M8" s="7">
-        <v>15</v>
-      </c>
-      <c r="N8" s="7">
-        <v>10188</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,49 +4243,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>308</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>208178</v>
+        <v>16181</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>33</v>
+      </c>
+      <c r="I10" s="7">
+        <v>20274</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="H10" s="7">
-        <v>300</v>
-      </c>
-      <c r="I10" s="7">
-        <v>186356</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>57</v>
+      </c>
+      <c r="N10" s="7">
+        <v>36455</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="M10" s="7">
-        <v>608</v>
-      </c>
-      <c r="N10" s="7">
-        <v>394534</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,49 +4294,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="D11" s="7">
-        <v>16181</v>
+        <v>208178</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>300</v>
+      </c>
+      <c r="I11" s="7">
+        <v>186356</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="7">
-        <v>33</v>
-      </c>
-      <c r="I11" s="7">
-        <v>20274</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>608</v>
+      </c>
+      <c r="N11" s="7">
+        <v>394534</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="M11" s="7">
-        <v>57</v>
-      </c>
-      <c r="N11" s="7">
-        <v>36455</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,49 +4398,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>150730</v>
+        <v>15943</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>20</v>
+      </c>
+      <c r="I13" s="7">
+        <v>12193</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="H13" s="7">
-        <v>239</v>
-      </c>
-      <c r="I13" s="7">
-        <v>143804</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>44</v>
+      </c>
+      <c r="N13" s="7">
+        <v>28136</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="M13" s="7">
-        <v>463</v>
-      </c>
-      <c r="N13" s="7">
-        <v>294534</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,49 +4449,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="D14" s="7">
-        <v>15943</v>
+        <v>150730</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>239</v>
+      </c>
+      <c r="I14" s="7">
+        <v>143804</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="H14" s="7">
-        <v>20</v>
-      </c>
-      <c r="I14" s="7">
-        <v>12193</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>463</v>
+      </c>
+      <c r="N14" s="7">
+        <v>294534</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="M14" s="7">
-        <v>44</v>
-      </c>
-      <c r="N14" s="7">
-        <v>28136</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,55 +4547,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>277</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>196496</v>
+        <v>9240</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H16" s="7">
+        <v>20</v>
+      </c>
+      <c r="I16" s="7">
+        <v>14386</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>33</v>
+      </c>
+      <c r="N16" s="7">
+        <v>23627</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="H16" s="7">
-        <v>261</v>
-      </c>
-      <c r="I16" s="7">
-        <v>193034</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="M16" s="7">
-        <v>538</v>
-      </c>
-      <c r="N16" s="7">
-        <v>389529</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>304</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,49 +4604,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>277</v>
       </c>
       <c r="D17" s="7">
-        <v>9240</v>
+        <v>196496</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H17" s="7">
+        <v>261</v>
+      </c>
+      <c r="I17" s="7">
+        <v>193034</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="M17" s="7">
+        <v>538</v>
+      </c>
+      <c r="N17" s="7">
+        <v>389529</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H17" s="7">
-        <v>20</v>
-      </c>
-      <c r="I17" s="7">
-        <v>14386</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M17" s="7">
-        <v>33</v>
-      </c>
-      <c r="N17" s="7">
-        <v>23627</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,49 +4708,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>995</v>
+        <v>70</v>
       </c>
       <c r="D19" s="7">
-        <v>696362</v>
+        <v>48482</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H19" s="7">
+        <v>85</v>
+      </c>
+      <c r="I19" s="7">
+        <v>55726</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="7">
+        <v>155</v>
+      </c>
+      <c r="N19" s="7">
+        <v>104208</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H19" s="7">
-        <v>975</v>
-      </c>
-      <c r="I19" s="7">
-        <v>648028</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1970</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1344390</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,49 +4759,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>70</v>
+        <v>995</v>
       </c>
       <c r="D20" s="7">
-        <v>48482</v>
+        <v>696362</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H20" s="7">
+        <v>975</v>
+      </c>
+      <c r="I20" s="7">
+        <v>648028</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1970</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1344390</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="H20" s="7">
-        <v>85</v>
-      </c>
-      <c r="I20" s="7">
-        <v>55726</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M20" s="7">
-        <v>155</v>
-      </c>
-      <c r="N20" s="7">
-        <v>104208</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,6 +4853,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4876,8 +4878,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9668D12-4F32-4533-BB06-A3BFF72394DB}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32074CC4-AC80-41E8-838C-5C6EDC56B5BB}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4893,7 +4895,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4994,49 +4996,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>12182</v>
+        <v>516</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1678</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="M4" s="7">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2194</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>26</v>
-      </c>
-      <c r="I4" s="7">
-        <v>15109</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>44</v>
-      </c>
-      <c r="N4" s="7">
-        <v>27291</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,49 +5047,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>516</v>
+        <v>12182</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>26</v>
+      </c>
+      <c r="I5" s="7">
+        <v>15109</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="7">
+        <v>44</v>
+      </c>
+      <c r="N5" s="7">
+        <v>27291</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1678</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2194</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,49 +5151,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>106505</v>
+        <v>8091</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H7" s="7">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7">
+        <v>7260</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>27</v>
+      </c>
+      <c r="N7" s="7">
+        <v>15352</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H7" s="7">
-        <v>154</v>
-      </c>
-      <c r="I7" s="7">
-        <v>96635</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="M7" s="7">
-        <v>293</v>
-      </c>
-      <c r="N7" s="7">
-        <v>203138</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,49 +5202,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="D8" s="7">
-        <v>8091</v>
+        <v>106505</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H8" s="7">
+        <v>154</v>
+      </c>
+      <c r="I8" s="7">
+        <v>96635</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M8" s="7">
+        <v>293</v>
+      </c>
+      <c r="N8" s="7">
+        <v>203138</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H8" s="7">
-        <v>14</v>
-      </c>
-      <c r="I8" s="7">
-        <v>7260</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="M8" s="7">
-        <v>27</v>
-      </c>
-      <c r="N8" s="7">
-        <v>15352</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,49 +5306,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>318</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>233167</v>
+        <v>17019</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H10" s="7">
+        <v>22</v>
+      </c>
+      <c r="I10" s="7">
+        <v>13597</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="M10" s="7">
+        <v>47</v>
+      </c>
+      <c r="N10" s="7">
+        <v>30615</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H10" s="7">
-        <v>258</v>
-      </c>
-      <c r="I10" s="7">
-        <v>178755</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="M10" s="7">
-        <v>576</v>
-      </c>
-      <c r="N10" s="7">
-        <v>411923</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,49 +5357,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="D11" s="7">
-        <v>17019</v>
+        <v>233167</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="7">
+        <v>258</v>
+      </c>
+      <c r="I11" s="7">
+        <v>178755</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M11" s="7">
+        <v>576</v>
+      </c>
+      <c r="N11" s="7">
+        <v>411923</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H11" s="7">
-        <v>22</v>
-      </c>
-      <c r="I11" s="7">
-        <v>13597</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="M11" s="7">
-        <v>47</v>
-      </c>
-      <c r="N11" s="7">
-        <v>30615</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,49 +5461,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>158257</v>
+        <v>14951</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H13" s="7">
+        <v>23</v>
+      </c>
+      <c r="I13" s="7">
+        <v>14625</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="M13" s="7">
+        <v>42</v>
+      </c>
+      <c r="N13" s="7">
+        <v>29576</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H13" s="7">
-        <v>203</v>
-      </c>
-      <c r="I13" s="7">
-        <v>153277</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="M13" s="7">
-        <v>409</v>
-      </c>
-      <c r="N13" s="7">
-        <v>311534</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,49 +5512,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="D14" s="7">
-        <v>14951</v>
+        <v>158257</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="I14" s="7">
-        <v>14625</v>
+        <v>153277</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
-        <v>42</v>
+        <v>409</v>
       </c>
       <c r="N14" s="7">
-        <v>29576</v>
+        <v>311534</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>393</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,55 +5610,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7">
-        <v>158759</v>
+        <v>16257</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I16" s="7">
-        <v>161510</v>
+        <v>10433</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
-        <v>440</v>
+        <v>38</v>
       </c>
       <c r="N16" s="7">
-        <v>320268</v>
+        <v>26690</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,49 +5667,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="D17" s="7">
-        <v>16257</v>
+        <v>158759</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="H17" s="7">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="I17" s="7">
-        <v>10433</v>
+        <v>161510</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="M17" s="7">
-        <v>38</v>
+        <v>440</v>
       </c>
       <c r="N17" s="7">
-        <v>26690</v>
+        <v>320268</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,49 +5771,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>897</v>
+        <v>80</v>
       </c>
       <c r="D19" s="7">
-        <v>668870</v>
+        <v>56834</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
-        <v>865</v>
+        <v>77</v>
       </c>
       <c r="I19" s="7">
-        <v>605285</v>
+        <v>47594</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>413</v>
+        <v>71</v>
       </c>
       <c r="M19" s="7">
-        <v>1762</v>
+        <v>157</v>
       </c>
       <c r="N19" s="7">
-        <v>1274154</v>
+        <v>104429</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>176</v>
+        <v>405</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>284</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,49 +5822,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
+        <v>897</v>
+      </c>
+      <c r="D20" s="7">
+        <v>668870</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H20" s="7">
+        <v>865</v>
+      </c>
+      <c r="I20" s="7">
+        <v>605285</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="7">
-        <v>56834</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="H20" s="7">
-        <v>77</v>
-      </c>
-      <c r="I20" s="7">
-        <v>47594</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>420</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>421</v>
+        <v>44</v>
       </c>
       <c r="M20" s="7">
-        <v>157</v>
+        <v>1762</v>
       </c>
       <c r="N20" s="7">
-        <v>104429</v>
+        <v>1274154</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>184</v>
+        <v>411</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,6 +5916,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP12_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP12_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20CFE56F-ADE1-486D-9382-4BAF45FA41E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48F16E35-822D-4A55-9371-25F88A483DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{095326FD-1E21-4657-9364-7337B947CDC1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DEFAA48E-6356-4761-8584-77D7EAD2EB88}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="409">
   <si>
     <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,25 +80,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>19,91%</t>
+    <t>24,14%</t>
   </si>
   <si>
     <t>24,41%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
   </si>
   <si>
     <t>14,99%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>93,43%</t>
   </si>
   <si>
-    <t>80,09%</t>
+    <t>75,86%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,1168 +116,1156 @@
     <t>75,59%</t>
   </si>
   <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>85,01%</t>
   </si>
   <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>2,92%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
   </si>
   <si>
     <t>10,1%</t>
   </si>
   <si>
-    <t>6,9%</t>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
   </si>
   <si>
     <t>95,42%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
   <si>
     <t>93,62%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2015 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5601E6-F3C9-4EF6-95DD-A6E804CD270C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A0D626-202B-4CD3-98C0-E95B4FEF477F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2609,7 +2597,7 @@
         <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>138</v>
@@ -2618,13 +2606,13 @@
         <v>91270</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2627,13 @@
         <v>675308</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>951</v>
@@ -2654,13 +2642,13 @@
         <v>637143</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>1966</v>
@@ -2669,13 +2657,13 @@
         <v>1312451</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,7 +2719,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2752,7 +2740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4E19BC-3B5A-485E-88DC-24A404441D94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364CAA30-46CA-4CC8-B4E1-6BA79E72461B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2769,7 +2757,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2876,13 +2864,13 @@
         <v>737</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2891,13 +2879,13 @@
         <v>3337</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2906,13 +2894,13 @@
         <v>4074</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,10 +2915,10 @@
         <v>24718</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -2942,13 +2930,13 @@
         <v>19036</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -2957,13 +2945,13 @@
         <v>43754</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3019,13 @@
         <v>9474</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -3046,13 +3034,13 @@
         <v>13805</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -3061,13 +3049,13 @@
         <v>23279</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3070,13 @@
         <v>119755</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>144</v>
@@ -3097,13 +3085,13 @@
         <v>103179</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>314</v>
@@ -3112,13 +3100,13 @@
         <v>222934</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3174,13 @@
         <v>14126</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -3201,13 +3189,13 @@
         <v>19183</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
@@ -3216,13 +3204,13 @@
         <v>33309</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3225,13 @@
         <v>209709</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H11" s="7">
         <v>290</v>
@@ -3252,13 +3240,13 @@
         <v>187175</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M11" s="7">
         <v>595</v>
@@ -3374,10 +3362,10 @@
         <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3380,13 @@
         <v>148475</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>227</v>
@@ -3407,13 +3395,13 @@
         <v>145960</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>456</v>
@@ -3422,13 +3410,13 @@
         <v>294435</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3484,13 @@
         <v>21106</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -3511,13 +3499,13 @@
         <v>15551</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -3526,13 +3514,13 @@
         <v>36656</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3535,13 @@
         <v>187290</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>254</v>
@@ -3562,7 +3550,7 @@
         <v>194749</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>204</v>
@@ -3681,7 +3669,7 @@
         <v>124852</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>215</v>
@@ -3732,7 +3720,7 @@
         <v>1340046</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>223</v>
@@ -3794,7 +3782,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3815,7 +3803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1120477C-3DC3-4B5A-A775-7CA50581CA31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCE8184-1818-43C7-B953-013746EEC5E2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3942,10 +3930,10 @@
         <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3954,13 +3942,13 @@
         <v>2802</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3969,13 +3957,13 @@
         <v>5803</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3978,13 @@
         <v>22574</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -4005,13 +3993,13 @@
         <v>19725</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>48</v>
@@ -4020,13 +4008,13 @@
         <v>42298</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4082,13 @@
         <v>4118</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4109,13 +4097,13 @@
         <v>6070</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -4124,13 +4112,13 @@
         <v>10188</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4133,13 @@
         <v>118384</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>154</v>
@@ -4160,13 +4148,13 @@
         <v>105110</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>313</v>
@@ -4175,13 +4163,13 @@
         <v>223494</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4237,13 @@
         <v>16181</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>109</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -4264,13 +4252,13 @@
         <v>20274</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -4279,13 +4267,13 @@
         <v>36455</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4288,13 @@
         <v>208178</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>117</v>
       </c>
       <c r="H11" s="7">
         <v>300</v>
@@ -4315,13 +4303,13 @@
         <v>186356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7">
         <v>608</v>
@@ -4330,13 +4318,13 @@
         <v>394534</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4392,13 @@
         <v>15943</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>159</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -4419,13 +4407,13 @@
         <v>12193</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -4434,13 +4422,13 @@
         <v>28136</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4443,13 @@
         <v>150730</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>239</v>
@@ -4470,13 +4458,13 @@
         <v>143804</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>463</v>
@@ -4485,13 +4473,13 @@
         <v>294534</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,13 +4547,13 @@
         <v>9240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -4577,10 +4565,10 @@
         <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -4589,13 +4577,13 @@
         <v>23627</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>145</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4598,13 @@
         <v>196496</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>261</v>
@@ -4628,10 +4616,10 @@
         <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>538</v>
@@ -4640,13 +4628,13 @@
         <v>389529</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>155</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,13 +4702,13 @@
         <v>48482</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -4729,13 +4717,13 @@
         <v>55726</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>155</v>
@@ -4744,13 +4732,13 @@
         <v>104208</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +4753,13 @@
         <v>696362</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>975</v>
@@ -4780,13 +4768,13 @@
         <v>648028</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>48</v>
+        <v>313</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>1970</v>
@@ -4795,13 +4783,13 @@
         <v>1344390</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,7 +4845,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4878,7 +4866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32074CC4-AC80-41E8-838C-5C6EDC56B5BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A623ED36-51E8-48B3-ADA5-513243499CF7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4895,7 +4883,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5002,13 +4990,13 @@
         <v>516</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5017,13 +5005,13 @@
         <v>1678</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5032,13 +5020,13 @@
         <v>2194</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,10 +5041,10 @@
         <v>12182</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -5068,10 +5056,10 @@
         <v>15109</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -5083,13 +5071,13 @@
         <v>27291</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5145,13 @@
         <v>8091</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5172,13 +5160,13 @@
         <v>7260</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -5187,13 +5175,13 @@
         <v>15352</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5196,13 @@
         <v>106505</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H8" s="7">
         <v>154</v>
@@ -5223,13 +5211,13 @@
         <v>96635</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>237</v>
+        <v>345</v>
       </c>
       <c r="M8" s="7">
         <v>293</v>
@@ -5238,13 +5226,13 @@
         <v>203138</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5300,13 @@
         <v>17019</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>350</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -5327,13 +5315,13 @@
         <v>13597</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -5342,13 +5330,13 @@
         <v>30615</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,13 +5351,13 @@
         <v>233167</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>358</v>
       </c>
       <c r="H11" s="7">
         <v>258</v>
@@ -5378,13 +5366,13 @@
         <v>178755</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M11" s="7">
         <v>576</v>
@@ -5393,13 +5381,13 @@
         <v>411923</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,13 +5455,13 @@
         <v>14951</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -5482,13 +5470,13 @@
         <v>14625</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -5497,13 +5485,13 @@
         <v>29576</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>370</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>376</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,13 +5506,13 @@
         <v>158257</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>203</v>
@@ -5533,13 +5521,13 @@
         <v>153277</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>409</v>
@@ -5548,13 +5536,13 @@
         <v>311534</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5610,13 @@
         <v>16257</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -5637,13 +5625,13 @@
         <v>10433</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>126</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -5652,13 +5640,13 @@
         <v>26690</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,13 +5661,13 @@
         <v>158759</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
         <v>224</v>
@@ -5688,13 +5676,13 @@
         <v>161510</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>397</v>
+        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>440</v>
@@ -5703,13 +5691,13 @@
         <v>320268</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>399</v>
+        <v>218</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,13 +5765,13 @@
         <v>56834</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -5792,13 +5780,13 @@
         <v>47594</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>396</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>397</v>
       </c>
       <c r="M19" s="7">
         <v>157</v>
@@ -5807,13 +5795,13 @@
         <v>104429</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>284</v>
+        <v>399</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,13 +5816,13 @@
         <v>668870</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="H20" s="7">
         <v>865</v>
@@ -5843,13 +5831,13 @@
         <v>605285</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>44</v>
+        <v>405</v>
       </c>
       <c r="M20" s="7">
         <v>1762</v>
@@ -5858,13 +5846,13 @@
         <v>1274154</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>293</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,7 +5908,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP12_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP12_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48F16E35-822D-4A55-9371-25F88A483DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE7C5209-911A-4959-9AF5-40F871A9DFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DEFAA48E-6356-4761-8584-77D7EAD2EB88}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5EB1A876-17EE-471C-97D8-2553C6A85AF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="362">
   <si>
     <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1204 +68,1063 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
   </si>
   <si>
     <t>10,39%</t>
   </si>
   <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>89,61%</t>
   </si>
   <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2016 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido algún dolor o síntoma que ha hecho reducir su actividad principal en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>9,74%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
   </si>
   <si>
     <t>90,26%</t>
   </si>
   <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
   </si>
 </sst>
 </file>
@@ -1677,8 +1536,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A0D626-202B-4CD3-98C0-E95B4FEF477F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D84FF20-EF72-48CA-B99F-BA0EBF43C47E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1795,10 +1654,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>1672</v>
+        <v>12241</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1810,10 +1669,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>5548</v>
+        <v>11787</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1825,10 +1684,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>7220</v>
+        <v>24028</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1846,10 +1705,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="D5" s="7">
-        <v>23772</v>
+        <v>126485</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1861,10 +1720,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="I5" s="7">
-        <v>17176</v>
+        <v>141290</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1876,10 +1735,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>395</v>
       </c>
       <c r="N5" s="7">
-        <v>40948</v>
+        <v>267775</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1897,10 +1756,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1912,10 +1771,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1927,10 +1786,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1950,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>10115</v>
+        <v>12094</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1965,10 +1824,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>6694</v>
+        <v>16832</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1980,10 +1839,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N7" s="7">
-        <v>16809</v>
+        <v>28927</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2001,10 +1860,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>178</v>
+        <v>292</v>
       </c>
       <c r="D8" s="7">
-        <v>117518</v>
+        <v>183069</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2016,10 +1875,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>164</v>
+        <v>297</v>
       </c>
       <c r="I8" s="7">
-        <v>109308</v>
+        <v>195310</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2031,10 +1890,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>342</v>
+        <v>589</v>
       </c>
       <c r="N8" s="7">
-        <v>226826</v>
+        <v>378378</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2052,10 +1911,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2067,10 +1926,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2082,10 +1941,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2105,49 +1964,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>16832</v>
+        <v>12697</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>12094</v>
+        <v>8278</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>28927</v>
+        <v>20975</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,49 +2015,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>297</v>
+        <v>208</v>
       </c>
       <c r="D11" s="7">
-        <v>195310</v>
+        <v>125120</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>292</v>
+        <v>219</v>
       </c>
       <c r="I11" s="7">
-        <v>183069</v>
+        <v>141379</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>589</v>
+        <v>427</v>
       </c>
       <c r="N11" s="7">
-        <v>378378</v>
+        <v>266499</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,10 +2066,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2222,10 +2081,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2237,10 +2096,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2254,55 +2113,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>8278</v>
+        <v>6845</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>12697</v>
+        <v>10495</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N13" s="7">
-        <v>20975</v>
+        <v>17340</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,49 +2170,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="D14" s="7">
-        <v>141379</v>
+        <v>202470</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="I14" s="7">
-        <v>125120</v>
+        <v>197329</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>427</v>
+        <v>555</v>
       </c>
       <c r="N14" s="7">
-        <v>266499</v>
+        <v>399799</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,10 +2221,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2377,10 +2236,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2392,10 +2251,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2409,55 +2268,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7">
-        <v>10495</v>
+        <v>43878</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="I16" s="7">
-        <v>6845</v>
+        <v>47392</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="N16" s="7">
-        <v>17340</v>
+        <v>91270</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,49 +2325,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>290</v>
+        <v>951</v>
       </c>
       <c r="D17" s="7">
-        <v>197329</v>
+        <v>637143</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>265</v>
+        <v>1015</v>
       </c>
       <c r="I17" s="7">
-        <v>202470</v>
+        <v>675308</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>555</v>
+        <v>1966</v>
       </c>
       <c r="N17" s="7">
-        <v>399799</v>
+        <v>1312451</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,10 +2376,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2532,10 +2391,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2547,10 +2406,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2563,171 +2422,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>71</v>
-      </c>
-      <c r="D19" s="7">
-        <v>47392</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>67</v>
-      </c>
-      <c r="I19" s="7">
-        <v>43878</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="7">
-        <v>138</v>
-      </c>
-      <c r="N19" s="7">
-        <v>91270</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1015</v>
-      </c>
-      <c r="D20" s="7">
-        <v>675308</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="7">
-        <v>951</v>
-      </c>
-      <c r="I20" s="7">
-        <v>637143</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1966</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1312451</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2740,8 +2443,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364CAA30-46CA-4CC8-B4E1-6BA79E72461B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A436C13-4F44-4D45-8F2B-1CB26DBF85F5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2757,7 +2460,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2858,49 +2561,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>737</v>
+        <v>17142</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>3337</v>
+        <v>10211</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>4074</v>
+        <v>27354</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,49 +2612,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="D5" s="7">
-        <v>24718</v>
+        <v>122215</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="I5" s="7">
-        <v>19036</v>
+        <v>144473</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="M5" s="7">
-        <v>49</v>
+        <v>363</v>
       </c>
       <c r="N5" s="7">
-        <v>43754</v>
+        <v>266687</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,10 +2663,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>139357</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2975,10 +2678,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>154684</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2990,10 +2693,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>400</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>294041</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3013,49 +2716,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>9474</v>
+        <v>19183</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
       </c>
       <c r="I7" s="7">
-        <v>13805</v>
+        <v>14126</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N7" s="7">
-        <v>23279</v>
+        <v>33309</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,49 +2767,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="D8" s="7">
-        <v>119755</v>
+        <v>187175</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>144</v>
+        <v>305</v>
       </c>
       <c r="I8" s="7">
-        <v>103179</v>
+        <v>209709</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>314</v>
+        <v>595</v>
       </c>
       <c r="N8" s="7">
-        <v>222934</v>
+        <v>396884</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,10 +2818,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>183</v>
+        <v>319</v>
       </c>
       <c r="D9" s="7">
-        <v>129229</v>
+        <v>206358</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3130,10 +2833,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>324</v>
       </c>
       <c r="I9" s="7">
-        <v>116984</v>
+        <v>223835</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3145,10 +2848,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>346</v>
+        <v>643</v>
       </c>
       <c r="N9" s="7">
-        <v>246213</v>
+        <v>430193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3168,49 +2871,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>14126</v>
+        <v>9416</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>19183</v>
+        <v>18117</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>33309</v>
+        <v>27533</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,49 +2922,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="D11" s="7">
-        <v>209709</v>
+        <v>145960</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>290</v>
+        <v>229</v>
       </c>
       <c r="I11" s="7">
-        <v>187175</v>
+        <v>148475</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>595</v>
+        <v>456</v>
       </c>
       <c r="N11" s="7">
-        <v>396884</v>
+        <v>294435</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,10 +2973,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>242</v>
       </c>
       <c r="D12" s="7">
-        <v>223835</v>
+        <v>155376</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3285,10 +2988,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>256</v>
       </c>
       <c r="I12" s="7">
-        <v>206358</v>
+        <v>166592</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3300,10 +3003,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>643</v>
+        <v>498</v>
       </c>
       <c r="N12" s="7">
-        <v>430193</v>
+        <v>321968</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3317,55 +3020,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>18117</v>
+        <v>15551</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>9416</v>
+        <v>21106</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N13" s="7">
-        <v>27533</v>
+        <v>36656</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,49 +3077,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="D14" s="7">
-        <v>148475</v>
+        <v>194749</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="I14" s="7">
-        <v>145960</v>
+        <v>187290</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="N14" s="7">
-        <v>294435</v>
+        <v>382040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,10 +3128,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>166592</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3440,10 +3143,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="I15" s="7">
-        <v>155376</v>
+        <v>208396</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3455,10 +3158,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>498</v>
+        <v>558</v>
       </c>
       <c r="N15" s="7">
-        <v>321968</v>
+        <v>418696</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3472,55 +3175,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="D16" s="7">
-        <v>21106</v>
+        <v>61292</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I16" s="7">
-        <v>15551</v>
+        <v>63560</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="N16" s="7">
-        <v>36656</v>
+        <v>124852</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,49 +3232,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>255</v>
+        <v>937</v>
       </c>
       <c r="D17" s="7">
-        <v>187290</v>
+        <v>650099</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>254</v>
+        <v>986</v>
       </c>
       <c r="I17" s="7">
-        <v>194749</v>
+        <v>689947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>509</v>
+        <v>1923</v>
       </c>
       <c r="N17" s="7">
-        <v>382040</v>
+        <v>1340046</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,10 +3283,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>283</v>
+        <v>1025</v>
       </c>
       <c r="D18" s="7">
-        <v>208396</v>
+        <v>711391</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3595,10 +3298,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1074</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>753507</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3610,10 +3313,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>558</v>
+        <v>2099</v>
       </c>
       <c r="N18" s="7">
-        <v>418696</v>
+        <v>1464898</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3626,171 +3329,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7">
-        <v>63560</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" s="7">
-        <v>88</v>
-      </c>
-      <c r="I19" s="7">
-        <v>61292</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M19" s="7">
-        <v>176</v>
-      </c>
-      <c r="N19" s="7">
-        <v>124852</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>986</v>
-      </c>
-      <c r="D20" s="7">
-        <v>689947</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="7">
-        <v>937</v>
-      </c>
-      <c r="I20" s="7">
-        <v>650099</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1923</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1340046</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1074</v>
-      </c>
-      <c r="D21" s="7">
-        <v>753507</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1025</v>
-      </c>
-      <c r="I21" s="7">
-        <v>711391</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2099</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1464898</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3803,8 +3350,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCE8184-1818-43C7-B953-013746EEC5E2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3353DFCD-4B8C-4A0A-B467-55F0FBF1DCC1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3820,7 +3367,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3921,49 +3468,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>3000</v>
+        <v>8872</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>2802</v>
+        <v>7118</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>5803</v>
+        <v>15991</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,49 +3519,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="D5" s="7">
-        <v>22574</v>
+        <v>124835</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="I5" s="7">
-        <v>19725</v>
+        <v>140958</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
-        <v>48</v>
+        <v>361</v>
       </c>
       <c r="N5" s="7">
-        <v>42298</v>
+        <v>265792</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,10 +3570,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4038,10 +3585,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4053,10 +3600,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4076,49 +3623,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>4118</v>
+        <v>20274</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>6070</v>
+        <v>16181</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="N7" s="7">
-        <v>10188</v>
+        <v>36455</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,49 +3674,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>159</v>
+        <v>300</v>
       </c>
       <c r="D8" s="7">
-        <v>118384</v>
+        <v>186356</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="H8" s="7">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="I8" s="7">
-        <v>105110</v>
+        <v>208178</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="M8" s="7">
-        <v>313</v>
+        <v>608</v>
       </c>
       <c r="N8" s="7">
-        <v>223494</v>
+        <v>394534</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,10 +3725,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>333</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>206630</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4193,10 +3740,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4208,10 +3755,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>665</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>430989</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4231,49 +3778,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7">
+        <v>12193</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="7">
         <v>24</v>
       </c>
-      <c r="D10" s="7">
-        <v>16181</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H10" s="7">
-        <v>33</v>
-      </c>
       <c r="I10" s="7">
-        <v>20274</v>
+        <v>15943</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N10" s="7">
-        <v>36455</v>
+        <v>28136</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,49 +3829,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>308</v>
+        <v>239</v>
       </c>
       <c r="D11" s="7">
-        <v>208178</v>
+        <v>143804</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="I11" s="7">
-        <v>186356</v>
+        <v>150730</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
-        <v>608</v>
+        <v>463</v>
       </c>
       <c r="N11" s="7">
-        <v>394534</v>
+        <v>294534</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,10 +3880,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4348,10 +3895,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>206630</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4363,10 +3910,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>665</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>430989</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4380,55 +3927,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>15943</v>
+        <v>14386</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>12193</v>
+        <v>9240</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N13" s="7">
-        <v>28136</v>
+        <v>23627</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,49 +3984,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="D14" s="7">
-        <v>150730</v>
+        <v>193034</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="I14" s="7">
-        <v>143804</v>
+        <v>196496</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
-        <v>463</v>
+        <v>538</v>
       </c>
       <c r="N14" s="7">
-        <v>294534</v>
+        <v>389529</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,10 +4035,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4503,10 +4050,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4518,10 +4065,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4535,55 +4082,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D16" s="7">
-        <v>9240</v>
+        <v>55726</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I16" s="7">
-        <v>14386</v>
+        <v>48482</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="N16" s="7">
-        <v>23627</v>
+        <v>104208</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,49 +4139,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>975</v>
+      </c>
+      <c r="D17" s="7">
+        <v>648028</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H17" s="7">
+        <v>995</v>
+      </c>
+      <c r="I17" s="7">
+        <v>696362</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1970</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1344390</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="7">
-        <v>196496</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H17" s="7">
-        <v>261</v>
-      </c>
-      <c r="I17" s="7">
-        <v>193034</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="M17" s="7">
-        <v>538</v>
-      </c>
-      <c r="N17" s="7">
-        <v>389529</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,10 +4190,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1060</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>703754</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4658,10 +4205,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4673,10 +4220,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>571</v>
+        <v>2125</v>
       </c>
       <c r="N18" s="7">
-        <v>413156</v>
+        <v>1448598</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4689,171 +4236,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>70</v>
-      </c>
-      <c r="D19" s="7">
-        <v>48482</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H19" s="7">
-        <v>85</v>
-      </c>
-      <c r="I19" s="7">
-        <v>55726</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="M19" s="7">
-        <v>155</v>
-      </c>
-      <c r="N19" s="7">
-        <v>104208</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>995</v>
-      </c>
-      <c r="D20" s="7">
-        <v>696362</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H20" s="7">
-        <v>975</v>
-      </c>
-      <c r="I20" s="7">
-        <v>648028</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1970</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1344390</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1060</v>
-      </c>
-      <c r="I21" s="7">
-        <v>703754</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2125</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1448598</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4866,8 +4257,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A623ED36-51E8-48B3-ADA5-513243499CF7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9283FE9-59D6-442E-8B1B-3B4D279D5DC1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4883,7 +4274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4984,49 +4375,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>516</v>
+        <v>8853</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>1678</v>
+        <v>8855</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N4" s="7">
-        <v>2194</v>
+        <v>17707</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,49 +4426,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="D5" s="7">
-        <v>12182</v>
+        <v>108427</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>290</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="I5" s="7">
-        <v>15109</v>
+        <v>131557</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
-        <v>44</v>
+        <v>337</v>
       </c>
       <c r="N5" s="7">
-        <v>27291</v>
+        <v>239986</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,10 +4477,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5101,10 +4492,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5116,10 +4507,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5139,49 +4530,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>8091</v>
+        <v>13592</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>7260</v>
+        <v>17222</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="M7" s="7">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="N7" s="7">
-        <v>15352</v>
+        <v>30814</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,49 +4581,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="D8" s="7">
-        <v>106505</v>
+        <v>176920</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="H8" s="7">
-        <v>154</v>
+        <v>318</v>
       </c>
       <c r="I8" s="7">
-        <v>96635</v>
+        <v>237813</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="M8" s="7">
-        <v>293</v>
+        <v>576</v>
       </c>
       <c r="N8" s="7">
-        <v>203138</v>
+        <v>414734</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,10 +4632,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5256,10 +4647,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I9" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5271,10 +4662,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>320</v>
+        <v>623</v>
       </c>
       <c r="N9" s="7">
-        <v>218490</v>
+        <v>445548</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5294,49 +4685,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>17019</v>
+        <v>14514</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="H10" s="7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>13597</v>
+        <v>16077</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="M10" s="7">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>30615</v>
+        <v>30592</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,49 +4736,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D11" s="7">
-        <v>233167</v>
+        <v>175071</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="H11" s="7">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="I11" s="7">
-        <v>178755</v>
+        <v>169209</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="M11" s="7">
-        <v>576</v>
+        <v>409</v>
       </c>
       <c r="N11" s="7">
-        <v>411923</v>
+        <v>344279</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,10 +4787,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>343</v>
+        <v>226</v>
       </c>
       <c r="D12" s="7">
-        <v>250186</v>
+        <v>189585</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5411,10 +4802,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5426,10 +4817,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>623</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>442538</v>
+        <v>374871</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5443,55 +4834,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>14951</v>
+        <v>10313</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>365</v>
+        <v>142</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>14625</v>
+        <v>16950</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="M13" s="7">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N13" s="7">
-        <v>29576</v>
+        <v>27263</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5500,49 +4891,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="D14" s="7">
-        <v>158257</v>
+        <v>157649</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="H14" s="7">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="I14" s="7">
-        <v>153277</v>
+        <v>164288</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="N14" s="7">
-        <v>311534</v>
+        <v>321938</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>234</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,10 +4942,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D15" s="7">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5566,10 +4957,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>167902</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5581,10 +4972,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="N15" s="7">
-        <v>341110</v>
+        <v>349201</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5598,55 +4989,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>16257</v>
+        <v>47272</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="H16" s="7">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I16" s="7">
-        <v>10433</v>
+        <v>59103</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="M16" s="7">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="N16" s="7">
-        <v>26690</v>
+        <v>106375</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,49 +5046,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>216</v>
+        <v>865</v>
       </c>
       <c r="D17" s="7">
-        <v>158759</v>
+        <v>618068</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>47</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="H17" s="7">
-        <v>224</v>
+        <v>897</v>
       </c>
       <c r="I17" s="7">
-        <v>161510</v>
+        <v>702869</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>135</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
-        <v>440</v>
+        <v>1762</v>
       </c>
       <c r="N17" s="7">
-        <v>320268</v>
+        <v>1320937</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>361</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>392</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,10 +5097,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>942</v>
       </c>
       <c r="D18" s="7">
-        <v>175016</v>
+        <v>665340</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5721,10 +5112,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>240</v>
+        <v>977</v>
       </c>
       <c r="I18" s="7">
-        <v>171943</v>
+        <v>761972</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5736,10 +5127,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>478</v>
+        <v>1919</v>
       </c>
       <c r="N18" s="7">
-        <v>346958</v>
+        <v>1427312</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5752,171 +5143,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>80</v>
-      </c>
-      <c r="D19" s="7">
-        <v>56834</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="H19" s="7">
-        <v>77</v>
-      </c>
-      <c r="I19" s="7">
-        <v>47594</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="M19" s="7">
-        <v>157</v>
-      </c>
-      <c r="N19" s="7">
-        <v>104429</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>897</v>
-      </c>
-      <c r="D20" s="7">
-        <v>668870</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H20" s="7">
-        <v>865</v>
-      </c>
-      <c r="I20" s="7">
-        <v>605285</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1762</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1274154</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>977</v>
-      </c>
-      <c r="D21" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>942</v>
-      </c>
-      <c r="I21" s="7">
-        <v>652879</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1919</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1378583</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
